--- a/packages/excel2js/in/K卡牌表.xlsx
+++ b/packages/excel2js/in/K卡牌表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>id</t>
   </si>
@@ -64,13 +64,184 @@
     <t>数字</t>
   </si>
   <si>
+    <t>卡牌icon</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>iconId</t>
+  </si>
+  <si>
+    <t>icon_card_1_1</t>
+  </si>
+  <si>
+    <t>icon_card_1_2</t>
+  </si>
+  <si>
+    <t>icon_card_1_3</t>
+  </si>
+  <si>
+    <t>icon_card_1_4</t>
+  </si>
+  <si>
+    <t>icon_card_1_5</t>
+  </si>
+  <si>
+    <t>icon_card_1_6</t>
+  </si>
+  <si>
+    <t>icon_card_1_7</t>
+  </si>
+  <si>
+    <t>icon_card_1_8</t>
+  </si>
+  <si>
+    <t>icon_card_1_9</t>
+  </si>
+  <si>
+    <t>icon_card_1_10</t>
+  </si>
+  <si>
+    <t>icon_card_1_11</t>
+  </si>
+  <si>
+    <t>icon_card_1_12</t>
+  </si>
+  <si>
+    <t>icon_card_1_13</t>
+  </si>
+  <si>
+    <t>icon_card_2_1</t>
+  </si>
+  <si>
+    <t>icon_card_2_2</t>
+  </si>
+  <si>
+    <t>icon_card_2_3</t>
+  </si>
+  <si>
+    <t>icon_card_2_4</t>
+  </si>
+  <si>
+    <t>icon_card_2_5</t>
+  </si>
+  <si>
+    <t>icon_card_2_6</t>
+  </si>
+  <si>
+    <t>icon_card_2_7</t>
+  </si>
+  <si>
+    <t>icon_card_2_8</t>
+  </si>
+  <si>
+    <t>icon_card_2_9</t>
+  </si>
+  <si>
+    <t>icon_card_2_10</t>
+  </si>
+  <si>
+    <t>icon_card_2_11</t>
+  </si>
+  <si>
+    <t>icon_card_2_12</t>
+  </si>
+  <si>
+    <t>icon_card_2_13</t>
+  </si>
+  <si>
+    <t>icon_card_3_1</t>
+  </si>
+  <si>
+    <t>icon_card_3_2</t>
+  </si>
+  <si>
+    <t>icon_card_3_3</t>
+  </si>
+  <si>
+    <t>icon_card_3_4</t>
+  </si>
+  <si>
+    <t>icon_card_3_5</t>
+  </si>
+  <si>
+    <t>icon_card_3_6</t>
+  </si>
+  <si>
+    <t>icon_card_3_7</t>
+  </si>
+  <si>
+    <t>icon_card_3_8</t>
+  </si>
+  <si>
+    <t>icon_card_3_9</t>
+  </si>
+  <si>
+    <t>icon_card_3_10</t>
+  </si>
+  <si>
+    <t>icon_card_3_11</t>
+  </si>
+  <si>
+    <t>icon_card_3_12</t>
+  </si>
+  <si>
+    <t>icon_card_3_13</t>
+  </si>
+  <si>
+    <t>icon_card_4_1</t>
+  </si>
+  <si>
+    <t>icon_card_4_2</t>
+  </si>
+  <si>
+    <t>icon_card_4_3</t>
+  </si>
+  <si>
+    <t>icon_card_4_4</t>
+  </si>
+  <si>
+    <t>icon_card_4_5</t>
+  </si>
+  <si>
+    <t>icon_card_4_6</t>
+  </si>
+  <si>
+    <t>icon_card_4_7</t>
+  </si>
+  <si>
+    <t>icon_card_4_8</t>
+  </si>
+  <si>
+    <t>icon_card_4_9</t>
+  </si>
+  <si>
+    <t>icon_card_4_10</t>
+  </si>
+  <si>
+    <t>icon_card_4_11</t>
+  </si>
+  <si>
+    <t>icon_card_4_12</t>
+  </si>
+  <si>
+    <t>icon_card_4_13</t>
+  </si>
+  <si>
+    <t>icon_card_5_1</t>
+  </si>
+  <si>
+    <t>icon_card_5_2</t>
   </si>
 </sst>
 </file>
@@ -78,10 +249,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,17 +263,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,13 +272,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,14 +286,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +315,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -159,17 +337,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,22 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -221,8 +383,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +398,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,31 +416,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,151 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,32 +610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,8 +643,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,23 +667,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,137 +727,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +866,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1040,20 +1214,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1063,30 +1239,39 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1096,8 +1281,11 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1107,8 +1295,11 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1118,8 +1309,11 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1129,8 +1323,11 @@
       <c r="C7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1140,8 +1337,11 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1151,8 +1351,11 @@
       <c r="C9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1162,8 +1365,11 @@
       <c r="C10" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1173,8 +1379,11 @@
       <c r="C11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1184,8 +1393,11 @@
       <c r="C12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1195,8 +1407,11 @@
       <c r="C13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1206,8 +1421,11 @@
       <c r="C14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1217,8 +1435,11 @@
       <c r="C15" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1228,8 +1449,11 @@
       <c r="C16" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1239,8 +1463,11 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1250,8 +1477,11 @@
       <c r="C18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1261,8 +1491,11 @@
       <c r="C19" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1272,8 +1505,11 @@
       <c r="C20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1283,8 +1519,11 @@
       <c r="C21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1294,8 +1533,11 @@
       <c r="C22" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1305,8 +1547,11 @@
       <c r="C23" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1316,8 +1561,11 @@
       <c r="C24" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1327,8 +1575,11 @@
       <c r="C25" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1338,8 +1589,11 @@
       <c r="C26" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1349,8 +1603,11 @@
       <c r="C27" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1360,8 +1617,11 @@
       <c r="C28" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1371,8 +1631,11 @@
       <c r="C29" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1382,8 +1645,11 @@
       <c r="C30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1393,8 +1659,11 @@
       <c r="C31" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1404,8 +1673,11 @@
       <c r="C32" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1415,8 +1687,11 @@
       <c r="C33" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1426,8 +1701,11 @@
       <c r="C34" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1437,8 +1715,11 @@
       <c r="C35" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1448,8 +1729,11 @@
       <c r="C36" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1459,8 +1743,11 @@
       <c r="C37" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1470,8 +1757,11 @@
       <c r="C38" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1481,8 +1771,11 @@
       <c r="C39" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -1492,8 +1785,11 @@
       <c r="C40" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -1503,8 +1799,11 @@
       <c r="C41" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -1514,8 +1813,11 @@
       <c r="C42" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -1525,8 +1827,11 @@
       <c r="C43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -1536,8 +1841,11 @@
       <c r="C44" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -1547,8 +1855,11 @@
       <c r="C45" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -1558,8 +1869,11 @@
       <c r="C46" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -1569,8 +1883,11 @@
       <c r="C47" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -1580,8 +1897,11 @@
       <c r="C48" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -1591,8 +1911,11 @@
       <c r="C49" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -1602,8 +1925,11 @@
       <c r="C50" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -1613,8 +1939,11 @@
       <c r="C51" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -1624,8 +1953,11 @@
       <c r="C52" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -1635,8 +1967,11 @@
       <c r="C53" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -1646,8 +1981,11 @@
       <c r="C54" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -1657,8 +1995,11 @@
       <c r="C55" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -1668,8 +2009,11 @@
       <c r="C56" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -1678,6 +2022,9 @@
       </c>
       <c r="C57" s="1">
         <v>15</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
